--- a/Datos/unidadmedica.xlsx
+++ b/Datos/unidadmedica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeadHunters\Desktop\Documents\GitHub\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2237057-9FBA-4CD1-873B-A50A14CC8C3D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95E4796B-42F1-494F-8CB4-FB4AD5F31DA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{6B64330E-713B-49E0-90F5-C9F5994A4617}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1012">
   <si>
     <t>idUnidad</t>
   </si>
@@ -991,6 +991,2076 @@
   </si>
   <si>
     <t>Unidad de Medicina Familiar "Malinaltepec"</t>
+  </si>
+  <si>
+    <t>GT-001</t>
+  </si>
+  <si>
+    <t>GT-002</t>
+  </si>
+  <si>
+    <t>GT-003</t>
+  </si>
+  <si>
+    <t>GT-004</t>
+  </si>
+  <si>
+    <t>GT-005</t>
+  </si>
+  <si>
+    <t>GT-006</t>
+  </si>
+  <si>
+    <t>GR-001</t>
+  </si>
+  <si>
+    <t>GR-002</t>
+  </si>
+  <si>
+    <t>GR-003</t>
+  </si>
+  <si>
+    <t>GR-004</t>
+  </si>
+  <si>
+    <t>GR-005</t>
+  </si>
+  <si>
+    <t>GR-006</t>
+  </si>
+  <si>
+    <t>GR-007</t>
+  </si>
+  <si>
+    <t>GR-008</t>
+  </si>
+  <si>
+    <t>GR-009</t>
+  </si>
+  <si>
+    <t>GR-010</t>
+  </si>
+  <si>
+    <t>GR-011</t>
+  </si>
+  <si>
+    <t>GR-012</t>
+  </si>
+  <si>
+    <t>GR-013</t>
+  </si>
+  <si>
+    <t>GR-014</t>
+  </si>
+  <si>
+    <t>GR-015</t>
+  </si>
+  <si>
+    <t>GR-016</t>
+  </si>
+  <si>
+    <t>GR-017</t>
+  </si>
+  <si>
+    <t>GR-018</t>
+  </si>
+  <si>
+    <t>GR-019</t>
+  </si>
+  <si>
+    <t>GR-020</t>
+  </si>
+  <si>
+    <t>GR-021</t>
+  </si>
+  <si>
+    <t>GR-022</t>
+  </si>
+  <si>
+    <t>GR-023</t>
+  </si>
+  <si>
+    <t>GR-024</t>
+  </si>
+  <si>
+    <t>GR-025</t>
+  </si>
+  <si>
+    <t>GR-026</t>
+  </si>
+  <si>
+    <t>GR-027</t>
+  </si>
+  <si>
+    <t>GR-028</t>
+  </si>
+  <si>
+    <t>GR-029</t>
+  </si>
+  <si>
+    <t>GR-030</t>
+  </si>
+  <si>
+    <t>GR-031</t>
+  </si>
+  <si>
+    <t>GR-032</t>
+  </si>
+  <si>
+    <t>GR-033</t>
+  </si>
+  <si>
+    <t>GR-034</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Marquelia"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Metlatonoc</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Mochitlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Jerónimo de Juárez"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Luis Acatlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Marcos"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Taxco de Alarcón"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tecoanapa"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Teloloapan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlacotepec"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlapehuala"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Unidad Habitacional Fovissste"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Unidad Habitacional Guerrero 2000"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zihuatanejo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zirandaro del Río"</t>
+  </si>
+  <si>
+    <t>Hospital General "Pachuca"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Huejutla de Reyes"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Ixmiquilpan"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Mixquiahuala"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Tulancingo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Actopán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Apán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Atotonilco El Grande"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Calnali"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Chapulhuacán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Huautla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Huichapan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jacala"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Meztitlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Mineral del Monte"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Molango"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Nicolas Flores"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Nopala"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Felipe Orizatlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tasquillo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tecozautla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tenango de Doria"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tepatepec"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tepeapulco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tepeji del Río"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tezontepec de Aldama"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tizayuca"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlanchinol"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlaxcoapán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tula de Allende"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Xochicoatlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zacualtipán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zapotlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zimapán"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Dr. Valentín Gómez Farías"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Ciudad Guzmán"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Puerto Vallarta"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar con Especialidades y Quirófano Clínica de Especialidades + Centro de Cirugía Simplificada</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Autlán de Navarro"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "N° 1 "Dr. Arturo González Guzmán</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "N° 2 "Guadalajara""</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "N° 3 "Guadalajara""</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Lagos de Moreno"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Morelia"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Bicentenario de la Independencia"</t>
+  </si>
+  <si>
+    <t>Hospital General "Toluca"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades con Centro de Cirugía Simplificada "Xalostoc"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Cuautitlán Izcalli"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Ecatepec de Morelos"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Nueva Oxtotitlán"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Nuevo ISSSTE"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Satélite Naucalpan"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Texcoco de Mora"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Tlalnepantla"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Valle de Aragón"</t>
+  </si>
+  <si>
+    <t>GR-035</t>
+  </si>
+  <si>
+    <t>GR-036</t>
+  </si>
+  <si>
+    <t>GR-037</t>
+  </si>
+  <si>
+    <t>GR-038</t>
+  </si>
+  <si>
+    <t>GR-039</t>
+  </si>
+  <si>
+    <t>GR-040</t>
+  </si>
+  <si>
+    <t>GR-041</t>
+  </si>
+  <si>
+    <t>GR-042</t>
+  </si>
+  <si>
+    <t>GR-043</t>
+  </si>
+  <si>
+    <t>GR-044</t>
+  </si>
+  <si>
+    <t>GR-045</t>
+  </si>
+  <si>
+    <t>GR-046</t>
+  </si>
+  <si>
+    <t>GR-047</t>
+  </si>
+  <si>
+    <t>GR-048</t>
+  </si>
+  <si>
+    <t>GR-049</t>
+  </si>
+  <si>
+    <t>HG-001</t>
+  </si>
+  <si>
+    <t>HG-002</t>
+  </si>
+  <si>
+    <t>HG-003</t>
+  </si>
+  <si>
+    <t>HG-004</t>
+  </si>
+  <si>
+    <t>HG-005</t>
+  </si>
+  <si>
+    <t>HG-006</t>
+  </si>
+  <si>
+    <t>HG-007</t>
+  </si>
+  <si>
+    <t>HG-008</t>
+  </si>
+  <si>
+    <t>HG-009</t>
+  </si>
+  <si>
+    <t>HG-010</t>
+  </si>
+  <si>
+    <t>HG-011</t>
+  </si>
+  <si>
+    <t>HG-012</t>
+  </si>
+  <si>
+    <t>HG-013</t>
+  </si>
+  <si>
+    <t>HG-014</t>
+  </si>
+  <si>
+    <t>HG-015</t>
+  </si>
+  <si>
+    <t>HG-016</t>
+  </si>
+  <si>
+    <t>HG-017</t>
+  </si>
+  <si>
+    <t>HG-018</t>
+  </si>
+  <si>
+    <t>HG-019</t>
+  </si>
+  <si>
+    <t>HG-020</t>
+  </si>
+  <si>
+    <t>HG-021</t>
+  </si>
+  <si>
+    <t>HG-022</t>
+  </si>
+  <si>
+    <t>HG-023</t>
+  </si>
+  <si>
+    <t>HG-024</t>
+  </si>
+  <si>
+    <t>HG-025</t>
+  </si>
+  <si>
+    <t>HG-026</t>
+  </si>
+  <si>
+    <t>HG-027</t>
+  </si>
+  <si>
+    <t>HG-028</t>
+  </si>
+  <si>
+    <t>HG-029</t>
+  </si>
+  <si>
+    <t>HG-030</t>
+  </si>
+  <si>
+    <t>HG-031</t>
+  </si>
+  <si>
+    <t>HG-032</t>
+  </si>
+  <si>
+    <t>HG-033</t>
+  </si>
+  <si>
+    <t>HG-034</t>
+  </si>
+  <si>
+    <t>JC-001</t>
+  </si>
+  <si>
+    <t>JC-002</t>
+  </si>
+  <si>
+    <t>JC-003</t>
+  </si>
+  <si>
+    <t>JC-004</t>
+  </si>
+  <si>
+    <t>JC-005</t>
+  </si>
+  <si>
+    <t>JC-006</t>
+  </si>
+  <si>
+    <t>JC-007</t>
+  </si>
+  <si>
+    <t>JC-008</t>
+  </si>
+  <si>
+    <t>JC-009</t>
+  </si>
+  <si>
+    <t>MC-001</t>
+  </si>
+  <si>
+    <t>MC-002</t>
+  </si>
+  <si>
+    <t>MC-003</t>
+  </si>
+  <si>
+    <t>MC-004</t>
+  </si>
+  <si>
+    <t>MC-005</t>
+  </si>
+  <si>
+    <t>MC-006</t>
+  </si>
+  <si>
+    <t>MC-007</t>
+  </si>
+  <si>
+    <t>MC-008</t>
+  </si>
+  <si>
+    <t>MC-009</t>
+  </si>
+  <si>
+    <t>MC-010</t>
+  </si>
+  <si>
+    <t>MC-011</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Apatzingán de la Constitución"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Pátzcuaro"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Roberto Flores Magón"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Sahuayo"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Uruapan del Progreso"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Zacapu"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Zamora"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Zitácuaro"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "La Piedad de Cabadas"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Morelia"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ario de Rosales"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Vasco de Quiroga"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Centenario de la Revolución Mexicana"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Dr. Rafael Barba Ocampo"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar con Especialidades y Quirófano "Jojutla"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Cuernavaca"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Amacuzac"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Axochiapan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ciudad Ayala"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Emiliano Zapata"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jiutepec"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jonacatepec"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Puente de Ixtla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Temixco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tepalcingo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tepoztlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tetecala"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tetela del Volcán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlaltizapan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlaquiltenango"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlayacapan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tres Marías"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Xochitepec"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Xoxocotla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Yautepec"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Yecapixtla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zacatepec"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zacualpan de Amilpas"</t>
+  </si>
+  <si>
+    <t>Hospital General "Dr. Aquiles Calles Ramírez"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Acaponeta"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Dr. Joaquín Canovas Puchades"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Monterrey"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Constitución"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar con Especialidades y Quirófano "Linares"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "General Escobedo"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Guadalupe, Colonia de Maestros"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Presidente Juárez"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Huajuapan de León"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Santiago Pinotepa Nacional"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Tehuantepec"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Tuxtepec"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar con Especialidades y Quirófano "Oaxaca"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Puerto Escondido"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Salina Cruz"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Puebla"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Huauchinango"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Tehuacán"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Teziutlán"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar con Especialidades y Quirófano "Puebla"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Acatlán de Osorio"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Atlixco"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "San Martín Texmelucan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Atencingo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cd. Serdán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Chiautla de Tapia"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Chignahuapán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cholula"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cuetzalan del Progreso"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Esperanza"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Huejotzingo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Izucar de Matamoros"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Libres"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Magisterial México 68"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Metlaltoyuca"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Pahuatlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Reforma Sur"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Juan Ixcaquixtla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tecamachalco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tepeaca"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tetela de Ocampo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlatlauquitepec"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Unidad Habitacional Fovissste San Roque"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Villa Rafael Lara Grajales"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Villa Verde"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Xicotepec de Juárez"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Xochiapulco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zacapoaxtla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zacatlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zapotitlán de Méndez"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zaragoza"</t>
+  </si>
+  <si>
+    <t>Hospital General "Querétaro"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Querétaro"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ajuchitlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Amealco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Arroyo Seco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Azteca III"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cadereyta"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ezequiel Montes"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jalpan de Serra"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Pedro Escobedo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Juan del Río"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Satélite"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tequisquiapan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tolimán"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Cancún"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Chetumal"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades Clínica de Detección y Diagnóstico Automatizado "Chetumal"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Cozumel"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Bacalar"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Felipe Carrillo Puerto"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Isla Mujeres"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "José Ma. Morelos"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Kantunilkin"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Playa del Carmen"</t>
+  </si>
+  <si>
+    <t>Hospital General "San Luis Potosí"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Ciudad Valles"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Matehuala</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Río Verde"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Tamazunchale"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades con Centro de Cirugía Simplificada "Dr. Pedro Bárcenas Hiriart"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Arturo Aguillón Luna"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Axtla de Terrazas"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cárdenas"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cerritos"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Charcas"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ciudad del Maíz"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ébano"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "El Naranjo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Matlapa"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Salinas de Hidalgo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Ciro de Acosta"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Martín Chalchicuautla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Vicente Tancuayalab"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Santa Ma. del Río"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Soledad de Graciano Sánchez"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tamasopo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tanquian de Escobedo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Villa de Hidalgo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Xilitla"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Dr. Manuel Cárdenas de la Vega"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Los Mochis"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Mazatlán"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Culiacán"</t>
+  </si>
+  <si>
+    <t>Hospital General "Dr. Fernando Ocaranza"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Ciudad Obregón"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Guaymas"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Navojoa"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "San Luis Río Colorado"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Hermosillo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Agua Prieta"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cananea"</t>
+  </si>
+  <si>
+    <t>Hospital General "Dr. Daniel Gurría Urgel"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Cárdenas"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Balancan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Casa Blanca"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Comalcalco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cunduacan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "El Triunfo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Frontera"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Huimanguillo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jalapa"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jalpa De Mendez"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jonuta"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Macuspana"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Nacajuca"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Paraíso"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Pedrobalancan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Sanchez Magallanes Cardenas"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tacotalpa"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tamulte De La Sabanas"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Teapa"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tenosique"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Villa Benito Juárez Card"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Villa Benito Juárez Macuspana"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Villa Vicente Guerrero Centla"</t>
+  </si>
+  <si>
+    <t>Hospital General "Tampico"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Agosto 12-Nuevo Laredo</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Ciudad Mante"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Ciudad Victoria"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Dr. Baudelio Villanueva-Reynosa"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Dr. Manuel F. Rodríguez-Matamoros"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Río Bravo"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Ciudad Victoria"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Tampico"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Abasolo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Aldama"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Altamira"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Arboledas"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Barretal"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Bustamante"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Camargo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ciudad Guerrero"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ciudad Mier"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Control"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Díaz Ordaz"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Gonzáles"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Hidalgo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jaumave"</t>
+  </si>
+  <si>
+    <t>Tamaulipas Unidad de Medicina Familiar "Jiménez"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Los Aztecas</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Miguel Alemán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ocampo"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Padilla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Carlos"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "San Fernando"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Soto la Marina"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tula"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Valle Hermoso"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Villa de Llera"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Villagrán</t>
+  </si>
+  <si>
+    <t>Tamaulipas Unidad de Medicina Familiar "Xicotencatl"</t>
+  </si>
+  <si>
+    <t>NT-001</t>
+  </si>
+  <si>
+    <t>NT-002</t>
+  </si>
+  <si>
+    <t>NT-003</t>
+  </si>
+  <si>
+    <t>MN-001</t>
+  </si>
+  <si>
+    <t>MN-002</t>
+  </si>
+  <si>
+    <t>MN-003</t>
+  </si>
+  <si>
+    <t>MN-004</t>
+  </si>
+  <si>
+    <t>MN-005</t>
+  </si>
+  <si>
+    <t>MN-006</t>
+  </si>
+  <si>
+    <t>MN-007</t>
+  </si>
+  <si>
+    <t>MN-008</t>
+  </si>
+  <si>
+    <t>MN-009</t>
+  </si>
+  <si>
+    <t>MN-010</t>
+  </si>
+  <si>
+    <t>MN-011</t>
+  </si>
+  <si>
+    <t>MN-012</t>
+  </si>
+  <si>
+    <t>MN-013</t>
+  </si>
+  <si>
+    <t>MS-001</t>
+  </si>
+  <si>
+    <t>MS-002</t>
+  </si>
+  <si>
+    <t>MS-003</t>
+  </si>
+  <si>
+    <t>MS-004</t>
+  </si>
+  <si>
+    <t>MS-005</t>
+  </si>
+  <si>
+    <t>MS-006</t>
+  </si>
+  <si>
+    <t>MS-007</t>
+  </si>
+  <si>
+    <t>MS-008</t>
+  </si>
+  <si>
+    <t>MS-009</t>
+  </si>
+  <si>
+    <t>MS-010</t>
+  </si>
+  <si>
+    <t>MS-011</t>
+  </si>
+  <si>
+    <t>MS-012</t>
+  </si>
+  <si>
+    <t>MS-013</t>
+  </si>
+  <si>
+    <t>MS-014</t>
+  </si>
+  <si>
+    <t>MS-015</t>
+  </si>
+  <si>
+    <t>MS-016</t>
+  </si>
+  <si>
+    <t>MS-017</t>
+  </si>
+  <si>
+    <t>MS-018</t>
+  </si>
+  <si>
+    <t>MS-019</t>
+  </si>
+  <si>
+    <t>MS-020</t>
+  </si>
+  <si>
+    <t>MS-021</t>
+  </si>
+  <si>
+    <t>MS-022</t>
+  </si>
+  <si>
+    <t>MS-023</t>
+  </si>
+  <si>
+    <t>MS-024</t>
+  </si>
+  <si>
+    <t>MS-025</t>
+  </si>
+  <si>
+    <t>MS-026</t>
+  </si>
+  <si>
+    <t>NL-001</t>
+  </si>
+  <si>
+    <t>NL-002</t>
+  </si>
+  <si>
+    <t>NL-003</t>
+  </si>
+  <si>
+    <t>NL-004</t>
+  </si>
+  <si>
+    <t>NL-005</t>
+  </si>
+  <si>
+    <t>OC-001</t>
+  </si>
+  <si>
+    <t>OC-002</t>
+  </si>
+  <si>
+    <t>OC-003</t>
+  </si>
+  <si>
+    <t>OC-004</t>
+  </si>
+  <si>
+    <t>OC-005</t>
+  </si>
+  <si>
+    <t>OC-006</t>
+  </si>
+  <si>
+    <t>OC-007</t>
+  </si>
+  <si>
+    <t>OC-008</t>
+  </si>
+  <si>
+    <t>PL-001</t>
+  </si>
+  <si>
+    <t>PL-002</t>
+  </si>
+  <si>
+    <t>PL-003</t>
+  </si>
+  <si>
+    <t>PL-004</t>
+  </si>
+  <si>
+    <t>PL-005</t>
+  </si>
+  <si>
+    <t>PL-006</t>
+  </si>
+  <si>
+    <t>PL-007</t>
+  </si>
+  <si>
+    <t>PL-008</t>
+  </si>
+  <si>
+    <t>PL-009</t>
+  </si>
+  <si>
+    <t>PL-010</t>
+  </si>
+  <si>
+    <t>PL-011</t>
+  </si>
+  <si>
+    <t>PL-012</t>
+  </si>
+  <si>
+    <t>PL-013</t>
+  </si>
+  <si>
+    <t>PL-014</t>
+  </si>
+  <si>
+    <t>PL-015</t>
+  </si>
+  <si>
+    <t>PL-016</t>
+  </si>
+  <si>
+    <t>PL-017</t>
+  </si>
+  <si>
+    <t>PL-018</t>
+  </si>
+  <si>
+    <t>PL-019</t>
+  </si>
+  <si>
+    <t>PL-020</t>
+  </si>
+  <si>
+    <t>PL-021</t>
+  </si>
+  <si>
+    <t>PL-022</t>
+  </si>
+  <si>
+    <t>PL-023</t>
+  </si>
+  <si>
+    <t>PL-024</t>
+  </si>
+  <si>
+    <t>PL-025</t>
+  </si>
+  <si>
+    <t>PL-026</t>
+  </si>
+  <si>
+    <t>PL-027</t>
+  </si>
+  <si>
+    <t>PL-028</t>
+  </si>
+  <si>
+    <t>PL-029</t>
+  </si>
+  <si>
+    <t>PL-030</t>
+  </si>
+  <si>
+    <t>PL-031</t>
+  </si>
+  <si>
+    <t>PL-032</t>
+  </si>
+  <si>
+    <t>PL-033</t>
+  </si>
+  <si>
+    <t>PL-034</t>
+  </si>
+  <si>
+    <t>PL-035</t>
+  </si>
+  <si>
+    <t>PL-036</t>
+  </si>
+  <si>
+    <t>PL-037</t>
+  </si>
+  <si>
+    <t>QT-001</t>
+  </si>
+  <si>
+    <t>QT-002</t>
+  </si>
+  <si>
+    <t>QT-003</t>
+  </si>
+  <si>
+    <t>QT-004</t>
+  </si>
+  <si>
+    <t>QT-005</t>
+  </si>
+  <si>
+    <t>QT-006</t>
+  </si>
+  <si>
+    <t>QT-007</t>
+  </si>
+  <si>
+    <t>QT-008</t>
+  </si>
+  <si>
+    <t>QT-009</t>
+  </si>
+  <si>
+    <t>QT-010</t>
+  </si>
+  <si>
+    <t>QT-011</t>
+  </si>
+  <si>
+    <t>QT-012</t>
+  </si>
+  <si>
+    <t>QT-013</t>
+  </si>
+  <si>
+    <t>QT-014</t>
+  </si>
+  <si>
+    <t>QR-001</t>
+  </si>
+  <si>
+    <t>QR-002</t>
+  </si>
+  <si>
+    <t>QR-003</t>
+  </si>
+  <si>
+    <t>QR-004</t>
+  </si>
+  <si>
+    <t>QR-005</t>
+  </si>
+  <si>
+    <t>QR-006</t>
+  </si>
+  <si>
+    <t>QR-007</t>
+  </si>
+  <si>
+    <t>QR-008</t>
+  </si>
+  <si>
+    <t>QR-009</t>
+  </si>
+  <si>
+    <t>QR-010</t>
+  </si>
+  <si>
+    <t>SP-001</t>
+  </si>
+  <si>
+    <t>SP-002</t>
+  </si>
+  <si>
+    <t>SP-003</t>
+  </si>
+  <si>
+    <t>SP-004</t>
+  </si>
+  <si>
+    <t>SP-005</t>
+  </si>
+  <si>
+    <t>SP-006</t>
+  </si>
+  <si>
+    <t>SP-007</t>
+  </si>
+  <si>
+    <t>SP-008</t>
+  </si>
+  <si>
+    <t>SP-009</t>
+  </si>
+  <si>
+    <t>SP-010</t>
+  </si>
+  <si>
+    <t>SP-011</t>
+  </si>
+  <si>
+    <t>SP-012</t>
+  </si>
+  <si>
+    <t>SP-013</t>
+  </si>
+  <si>
+    <t>SP-014</t>
+  </si>
+  <si>
+    <t>SP-015</t>
+  </si>
+  <si>
+    <t>SP-016</t>
+  </si>
+  <si>
+    <t>SP-017</t>
+  </si>
+  <si>
+    <t>SP-018</t>
+  </si>
+  <si>
+    <t>SP-019</t>
+  </si>
+  <si>
+    <t>SP-020</t>
+  </si>
+  <si>
+    <t>SP-021</t>
+  </si>
+  <si>
+    <t>SP-022</t>
+  </si>
+  <si>
+    <t>SP-023</t>
+  </si>
+  <si>
+    <t>SP-024</t>
+  </si>
+  <si>
+    <t>SP-025</t>
+  </si>
+  <si>
+    <t>SL-001</t>
+  </si>
+  <si>
+    <t>SL-002</t>
+  </si>
+  <si>
+    <t>SL-003</t>
+  </si>
+  <si>
+    <t>SL-004</t>
+  </si>
+  <si>
+    <t>SR-001</t>
+  </si>
+  <si>
+    <t>SR-002</t>
+  </si>
+  <si>
+    <t>SR-003</t>
+  </si>
+  <si>
+    <t>SR-004</t>
+  </si>
+  <si>
+    <t>SR-005</t>
+  </si>
+  <si>
+    <t>SR-006</t>
+  </si>
+  <si>
+    <t>SR-007</t>
+  </si>
+  <si>
+    <t>SR-008</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>TC-024</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t>TS-001</t>
+  </si>
+  <si>
+    <t>TS-002</t>
+  </si>
+  <si>
+    <t>TS-003</t>
+  </si>
+  <si>
+    <t>TS-004</t>
+  </si>
+  <si>
+    <t>TS-005</t>
+  </si>
+  <si>
+    <t>TS-006</t>
+  </si>
+  <si>
+    <t>TS-007</t>
+  </si>
+  <si>
+    <t>TS-008</t>
+  </si>
+  <si>
+    <t>TS-009</t>
+  </si>
+  <si>
+    <t>TS-010</t>
+  </si>
+  <si>
+    <t>TS-011</t>
+  </si>
+  <si>
+    <t>TS-012</t>
+  </si>
+  <si>
+    <t>TS-013</t>
+  </si>
+  <si>
+    <t>TS-014</t>
+  </si>
+  <si>
+    <t>TS-015</t>
+  </si>
+  <si>
+    <t>TS-016</t>
+  </si>
+  <si>
+    <t>TS-017</t>
+  </si>
+  <si>
+    <t>TS-018</t>
+  </si>
+  <si>
+    <t>TS-019</t>
+  </si>
+  <si>
+    <t>TS-020</t>
+  </si>
+  <si>
+    <t>TS-021</t>
+  </si>
+  <si>
+    <t>TS-022</t>
+  </si>
+  <si>
+    <t>TS-023</t>
+  </si>
+  <si>
+    <t>TS-024</t>
+  </si>
+  <si>
+    <t>TS-025</t>
+  </si>
+  <si>
+    <t>TS-026</t>
+  </si>
+  <si>
+    <t>TS-027</t>
+  </si>
+  <si>
+    <t>TS-028</t>
+  </si>
+  <si>
+    <t>TS-029</t>
+  </si>
+  <si>
+    <t>TS-030</t>
+  </si>
+  <si>
+    <t>TS-031</t>
+  </si>
+  <si>
+    <t>TS-032</t>
+  </si>
+  <si>
+    <t>TS-033</t>
+  </si>
+  <si>
+    <t>TS-034</t>
+  </si>
+  <si>
+    <t>TS-035</t>
+  </si>
+  <si>
+    <t>TS-036</t>
+  </si>
+  <si>
+    <t>Hospital General "Tlaxcala"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Apizaco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Calpulalpan"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Huamantla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Zacatelco"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Veracruz"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Coatzacoalcos"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Orizaba"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Poza Rica"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Tuxpam de Rodríguez Cano"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Xalapa"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Acayucán"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Córdoba"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Heroica de Veracruz"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Martínez de la Torre"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Minatitlán"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "San Andrés Tuxtla"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cerro Azul"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ciudad Alemán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cosamaloapan de Carpio"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Las Choapas"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Naranjos"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Pánuco"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tantoyuca"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tierra Blanca"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Mérida"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar con Especialidades y Quirófano "Mérida"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Dzidzantun"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Izamal"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Maxcanú"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Motul"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Muna"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Oxkutzcab"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Peto"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Progreso"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tekax"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ticul"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tixkokob"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tizimín"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Valladolid"</t>
+  </si>
+  <si>
+    <t>Hospital General "Zacatecas"</t>
+  </si>
+  <si>
+    <t>Clínica Hospital "Fresnillo"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Guadalupe"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Calera"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Concepción del Oro"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jalpa"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Jerez"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Juan Aldama"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Juchipila"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Nochistlán"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Ojocaliente"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Pinos"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Rio Grande"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Sombrerete"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Sain Alto"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Tlaltenango"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Trancoso"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Valparaíso"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "1° de Octubre"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades "Indianilla"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades "Neuropsiquiatría"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades "Dentales Honorato Villa Acosta"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades Centro de Cirugía Ambulatoria "1° de Octubre"</t>
+  </si>
+  <si>
+    <t>Centro de Apoyo y Diagnóstico "San Rafael" Unidad Especial</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "5 de Febrero"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Aragón"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Dr. Javier Domínguez Estrada"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Guerrero"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Gustavo Madero"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Juárez"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Peralvillo"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Perú"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "San Antonio Abad"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Santa María"</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Guerrero"</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica 5 de Febrero"</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Gustavo A. Madero" C.I. y E.A. DEL I.P.N.</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Juárez"</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Peralvillo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultorio Auxiliar "Clínica Perú" </t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Santa María"</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Dr. Javier Domínguez Estrada"</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Aragón"</t>
+  </si>
+  <si>
+    <t>Estancia Temporal para Enfermos de los Estados "E.T. para los Enfermos de los Estados"</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Lic. Adolfo López Mateos"</t>
   </si>
 </sst>
 </file>
@@ -1026,11 +3096,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE28B81-502C-4E5A-BB75-1FF268AF61EC}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A535" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B553" sqref="B553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,7 +4743,7 @@
       <c r="A120" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C120" s="1">
@@ -2683,7 +4754,7 @@
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C121" s="1">
@@ -2694,7 +4765,7 @@
       <c r="A122" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C122" s="1">
@@ -2705,7 +4776,7 @@
       <c r="A123" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C123" s="1">
@@ -2716,7 +4787,7 @@
       <c r="A124" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C124" s="1">
@@ -2727,7 +4798,7 @@
       <c r="A125" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C125" s="1">
@@ -2738,7 +4809,7 @@
       <c r="A126" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C126" s="1">
@@ -2749,7 +4820,7 @@
       <c r="A127" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C127" s="1">
@@ -2760,7 +4831,7 @@
       <c r="A128" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C128" s="1">
@@ -2771,7 +4842,7 @@
       <c r="A129" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C129" s="1">
@@ -2782,7 +4853,7 @@
       <c r="A130" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C130" s="1">
@@ -2793,7 +4864,7 @@
       <c r="A131" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C131" s="1">
@@ -2804,7 +4875,7 @@
       <c r="A132" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C132" s="1">
@@ -2815,7 +4886,7 @@
       <c r="A133" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C133" s="1">
@@ -2826,7 +4897,7 @@
       <c r="A134" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C134" s="1">
@@ -2837,7 +4908,7 @@
       <c r="A135" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C135" s="1">
@@ -2848,7 +4919,7 @@
       <c r="A136" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C136" s="1">
@@ -2859,7 +4930,7 @@
       <c r="A137" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C137" s="1">
@@ -2870,7 +4941,7 @@
       <c r="A138" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C138" s="1">
@@ -2881,7 +4952,7 @@
       <c r="A139" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C139" s="1">
@@ -2892,7 +4963,7 @@
       <c r="A140" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C140" s="1">
@@ -2900,7 +4971,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="A141" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C141" s="1">
@@ -2908,201 +4982,4268 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="A142" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="C142" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="A143" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="C143" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+      <c r="A144" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="C144" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="C145" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+      <c r="C146" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="C148" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+      <c r="C149" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+      <c r="C150" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+      <c r="C151" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+      <c r="C152" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+      <c r="C153" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+      <c r="C154" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+      <c r="C155" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+      <c r="C156" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+      <c r="C157" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+      <c r="C158" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+      <c r="C159" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+      <c r="C160" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+      <c r="C161" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+      <c r="C162" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+      <c r="C163" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+      <c r="C164" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+      <c r="C165" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+      <c r="C166" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+      <c r="C167" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+      <c r="C168" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+      <c r="C169" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+      <c r="C170" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+      <c r="C171" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="C172" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+      <c r="C173" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="C174" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="C175" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+      <c r="C176" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+      <c r="C177" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+      <c r="C178" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+      <c r="C179" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>321</v>
+      </c>
+      <c r="C180" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C181" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C182" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C183" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C184" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C186" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C187" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C189" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C190" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C191" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C192" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C193" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C194" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C195" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C196" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C197" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C198" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C199" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C200" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C201" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C202" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C203" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C204" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C205" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C206" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C207" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C208" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C209" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C210" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C211" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C212" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C213" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C214" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C215" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C216" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C217" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C218" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C219" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C220" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C221" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C222" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C223" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C224" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C225" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C226" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C227" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C228" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C229" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C230" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C231" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C232" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C233" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C234" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C235" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C236" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C237" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C238" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C239" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C240" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C241" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C242" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C243" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C244" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C245" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C246" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C247" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C248" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C249" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C250" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C251" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C252" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C253" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C254" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C255" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C256" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C257" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C258" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C259" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C260" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C261" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C262" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C263" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C264" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C265" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C266" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C267" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C268" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C269" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C270" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C271" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C272" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C273" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C274" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C275" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C276" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C277" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C278" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C279" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C280" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C281" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C282" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C283" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C284" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C285" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C286" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C287" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C288" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C289" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C290" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C291" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C292" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C293" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C294" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C295" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C296" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C297" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C298" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C299" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C300" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C301" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C302" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C303" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C304" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C305" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C306" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C307" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C308" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C309" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C310" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C311" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C312" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C313" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C314" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C315" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C316" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C317" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C318" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C319" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C320" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C321" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C322" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C323" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C324" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C325" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C326" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C327" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C328" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C329" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C330" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C331" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C332" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C333" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C334" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C335" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C336" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C337" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C338" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C339" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C340" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C341" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C342" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C343" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C344" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C345" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C346" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C347" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C348" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C349" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C350" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C351" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C352" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C353" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C354" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C355" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C356" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C357" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C358" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C359" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C360" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C361" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C362" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C363" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C364" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C365" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C366" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C367" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C368" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C369" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C370" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C371" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C372" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C373" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C374" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C375" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C376" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C377" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C378" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C379" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C380" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C381" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C382" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C383" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C384" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C385" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C386" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C387" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C388" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C389" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C390" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C391" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C392" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C393" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C394" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C395" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C396" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C397" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C398" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C399" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C400" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C401" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C402" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C403" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C404" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C405" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C406" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C407" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C408" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C409" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C410" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C411" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C412" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C413" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C414" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C415" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C416" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C417" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C418" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C419" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C420" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C421" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C422" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C423" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C424" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C425" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C426" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C427" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C428" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C429" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C430" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C431" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C432" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C433" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C434" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C435" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C436" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C437" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C438" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C439" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C440" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C441" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C442" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C443" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C444" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C445" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C446" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C447" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C448" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C449" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C450" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C451" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C452" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C453" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C454" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C455" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C456" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C457" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C458" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C459" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C460" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C461" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C462" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C463" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C464" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B465" t="s">
+        <v>927</v>
+      </c>
+      <c r="C465" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B466" t="s">
+        <v>928</v>
+      </c>
+      <c r="C466" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B467" t="s">
+        <v>929</v>
+      </c>
+      <c r="C467" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B468" t="s">
+        <v>930</v>
+      </c>
+      <c r="C468" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B469" t="s">
+        <v>931</v>
+      </c>
+      <c r="C469" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>932</v>
+      </c>
+      <c r="C470">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>933</v>
+      </c>
+      <c r="C471">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B472" t="s">
+        <v>934</v>
+      </c>
+      <c r="C472">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>935</v>
+      </c>
+      <c r="C473">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B474" t="s">
+        <v>936</v>
+      </c>
+      <c r="C474">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>937</v>
+      </c>
+      <c r="C475">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B476" t="s">
+        <v>938</v>
+      </c>
+      <c r="C476">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B477" t="s">
+        <v>939</v>
+      </c>
+      <c r="C477">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B478" t="s">
+        <v>940</v>
+      </c>
+      <c r="C478">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B479" t="s">
+        <v>941</v>
+      </c>
+      <c r="C479">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B480" t="s">
+        <v>942</v>
+      </c>
+      <c r="C480">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B481" t="s">
+        <v>943</v>
+      </c>
+      <c r="C481">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B482" t="s">
+        <v>944</v>
+      </c>
+      <c r="C482">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B483" t="s">
+        <v>945</v>
+      </c>
+      <c r="C483">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B484" t="s">
+        <v>946</v>
+      </c>
+      <c r="C484">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B485" t="s">
+        <v>947</v>
+      </c>
+      <c r="C485">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B486" t="s">
+        <v>948</v>
+      </c>
+      <c r="C486">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B487" t="s">
+        <v>949</v>
+      </c>
+      <c r="C487">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B488" t="s">
+        <v>950</v>
+      </c>
+      <c r="C488">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B489" t="s">
+        <v>951</v>
+      </c>
+      <c r="C489">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B490" t="s">
+        <v>952</v>
+      </c>
+      <c r="C490">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B491" t="s">
+        <v>953</v>
+      </c>
+      <c r="C491">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B492" t="s">
+        <v>954</v>
+      </c>
+      <c r="C492">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B493" t="s">
+        <v>955</v>
+      </c>
+      <c r="C493">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B494" t="s">
+        <v>956</v>
+      </c>
+      <c r="C494">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B495" t="s">
+        <v>957</v>
+      </c>
+      <c r="C495">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B496" t="s">
+        <v>958</v>
+      </c>
+      <c r="C496">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B497" t="s">
+        <v>959</v>
+      </c>
+      <c r="C497">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
+        <v>960</v>
+      </c>
+      <c r="C498">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B499" t="s">
+        <v>961</v>
+      </c>
+      <c r="C499">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>704</v>
+      </c>
+      <c r="C500">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B501" t="s">
+        <v>962</v>
+      </c>
+      <c r="C501">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B502" t="s">
+        <v>963</v>
+      </c>
+      <c r="C502">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>964</v>
+      </c>
+      <c r="C503">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B504" t="s">
+        <v>965</v>
+      </c>
+      <c r="C504">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B505" t="s">
+        <v>966</v>
+      </c>
+      <c r="C505">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>967</v>
+      </c>
+      <c r="C506">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>968</v>
+      </c>
+      <c r="C507">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B508" t="s">
+        <v>969</v>
+      </c>
+      <c r="C508">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B509" t="s">
+        <v>970</v>
+      </c>
+      <c r="C509">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>971</v>
+      </c>
+      <c r="C510">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B511" t="s">
+        <v>972</v>
+      </c>
+      <c r="C511">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B512" t="s">
+        <v>973</v>
+      </c>
+      <c r="C512">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>974</v>
+      </c>
+      <c r="C513">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>975</v>
+      </c>
+      <c r="C514">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>33</v>
+      </c>
+      <c r="C515">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B516" t="s">
+        <v>976</v>
+      </c>
+      <c r="C516">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B517" t="s">
+        <v>977</v>
+      </c>
+      <c r="C517">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B518" t="s">
+        <v>978</v>
+      </c>
+      <c r="C518">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B519" t="s">
+        <v>979</v>
+      </c>
+      <c r="C519">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B520" t="s">
+        <v>980</v>
+      </c>
+      <c r="C520">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B521" t="s">
+        <v>981</v>
+      </c>
+      <c r="C521">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B522" t="s">
+        <v>982</v>
+      </c>
+      <c r="C522">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B523" t="s">
+        <v>983</v>
+      </c>
+      <c r="C523">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B524" t="s">
+        <v>984</v>
+      </c>
+      <c r="C524">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B525" t="s">
+        <v>985</v>
+      </c>
+      <c r="C525">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B526" t="s">
+        <v>986</v>
+      </c>
+      <c r="C526">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B527" t="s">
+        <v>987</v>
+      </c>
+      <c r="C527">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B528" t="s">
+        <v>988</v>
+      </c>
+      <c r="C528">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>989</v>
+      </c>
+      <c r="C529">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>990</v>
+      </c>
+      <c r="C530">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>991</v>
+      </c>
+      <c r="C531">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B532" t="s">
+        <v>992</v>
+      </c>
+      <c r="C532">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B533" t="s">
+        <v>993</v>
+      </c>
+      <c r="C533">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>969</v>
+      </c>
+      <c r="C534">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B535" t="s">
+        <v>994</v>
+      </c>
+      <c r="C535">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B536" t="s">
+        <v>995</v>
+      </c>
+      <c r="C536">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>996</v>
+      </c>
+      <c r="C537">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>996</v>
+      </c>
+      <c r="C538">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B539" t="s">
+        <v>997</v>
+      </c>
+      <c r="C539">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B540" t="s">
+        <v>998</v>
+      </c>
+      <c r="C540">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B541" t="s">
+        <v>999</v>
+      </c>
+      <c r="C541">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B542" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C542">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B543" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C543">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B544" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C544">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B545" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C545">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B546" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C546">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B547" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C547">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B548" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C548">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B549" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C549">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B550" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C550">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B551" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C551">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B552" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C552">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B553" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C553">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/unidadmedica.xlsx
+++ b/Datos/unidadmedica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeadHunters\Desktop\Documents\GitHub\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95E4796B-42F1-494F-8CB4-FB4AD5F31DA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07E2D128-DFE1-4F70-8C59-2FA1B74F31BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{6B64330E-713B-49E0-90F5-C9F5994A4617}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1202">
   <si>
     <t>idUnidad</t>
   </si>
@@ -90,9 +90,6 @@
     <t>DG-002</t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
     <t>Clínica Hospital "Santa Rosalía"</t>
   </si>
   <si>
@@ -3061,6 +3058,579 @@
   </si>
   <si>
     <t>Hospital Regional "Lic. Adolfo López Mateos"</t>
+  </si>
+  <si>
+    <t>Hospital General "Dr. Darío Fernández Fierro"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades con Centro de Cirugía Simplificada "Churubusco"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades Clínica de Detección y Diagnóstico Automatizado</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Física y Rehabilitación</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Coyoacán"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Del Valle"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "División del Norte"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Dr. Ignacio Chávez"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Dr. José Luis Gómez Pimienta y García (Ermita)"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Fuentes Brotantes"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Milpa Alta"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Narvarte"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Tlalpan"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Villa Álvaro Obregón"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Xochimilco"</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Coyoacán" Unidad Integración Latinoamericana U.M.F.</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Coyoacán" Desarrollo Integral de la Familia D.I.F.Unidad N° 27</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica del Valle" Centro Urbano Presidente Alemán (C.U.P.A.) U.M.F</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica del Valle" S.H.C.P. Insurgentes N° 795</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica del Valle" S.H.C.P. Pestalozzi N° 37</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica del Valle" S.H.C.P. Universidad N°1074</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Dr. Ignacio Chávez" Secretaría de Hacienda y Crédito Públic</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Tlalpan" Unidad N° 17</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Tlalpan" Unidad N° 41 U.P.N. S.E.P.</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Villa Álvaro Obregón" Secretaría de la Función Pública Unidad N° 1</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Xochimilco" Unidad N° 68 S.H.C.P.</t>
+  </si>
+  <si>
+    <t>Hospital Regional "Gral. Ignacio Zaragoza"</t>
+  </si>
+  <si>
+    <t>Hospital General "José María Morelos y Pavón"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades con Centro de Cirugía Simplificada "Leonardo Bravo"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Balbuena"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Ermita Zaragoza"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Iztapalapa I"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Iztapalapa II"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Moctezuma"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Morelos"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Oriente"</t>
+  </si>
+  <si>
+    <t>Hospital General "Dr. Fernando Quiroz Gutiérrez"</t>
+  </si>
+  <si>
+    <t>Hospital General "Tacuba"</t>
+  </si>
+  <si>
+    <t>Clínica de Especialidades con Centro de Cirugía Simplificada "Dr. Alberto Pisanty Ovadía"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Azcapotzalco"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Cuitláhuac"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Legaria"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Marina Nacional"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Observatorio"</t>
+  </si>
+  <si>
+    <t>Clínica de Medicina Familiar "Revolución"</t>
+  </si>
+  <si>
+    <t>Unidad de Medicina Familiar "Cuajimalpa"</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Azcapotzalco" U.H. San Isidro Unidad s/n</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Cuitláhuac" Centro Postal Mecanizado Pantaco Unidad N° 32</t>
+  </si>
+  <si>
+    <t>Consultorio Auxiliar "Clínica Marina Nacional" Secretaría de Hacienda y Crédito Público Unidad N° 26</t>
+  </si>
+  <si>
+    <t>Centro Médico Nacional "20 de Noviembre"</t>
+  </si>
+  <si>
+    <t>Escuela de Dietética y Nutrición</t>
+  </si>
+  <si>
+    <t>TL-001</t>
+  </si>
+  <si>
+    <t>TL-002</t>
+  </si>
+  <si>
+    <t>TL-003</t>
+  </si>
+  <si>
+    <t>TL-004</t>
+  </si>
+  <si>
+    <t>TL-005</t>
+  </si>
+  <si>
+    <t>VZ-001</t>
+  </si>
+  <si>
+    <t>VZ-002</t>
+  </si>
+  <si>
+    <t>VZ-003</t>
+  </si>
+  <si>
+    <t>VZ-004</t>
+  </si>
+  <si>
+    <t>VZ-005</t>
+  </si>
+  <si>
+    <t>VZ-006</t>
+  </si>
+  <si>
+    <t>VZ-007</t>
+  </si>
+  <si>
+    <t>VZ-008</t>
+  </si>
+  <si>
+    <t>VZ-009</t>
+  </si>
+  <si>
+    <t>VZ-010</t>
+  </si>
+  <si>
+    <t>VZ-011</t>
+  </si>
+  <si>
+    <t>VZ-012</t>
+  </si>
+  <si>
+    <t>VZ-013</t>
+  </si>
+  <si>
+    <t>VZ-014</t>
+  </si>
+  <si>
+    <t>VZ-015</t>
+  </si>
+  <si>
+    <t>VZ-016</t>
+  </si>
+  <si>
+    <t>VZ-017</t>
+  </si>
+  <si>
+    <t>VZ-018</t>
+  </si>
+  <si>
+    <t>VZ-019</t>
+  </si>
+  <si>
+    <t>VZ-020</t>
+  </si>
+  <si>
+    <t>YN-001</t>
+  </si>
+  <si>
+    <t>YN-002</t>
+  </si>
+  <si>
+    <t>YN-003</t>
+  </si>
+  <si>
+    <t>YN-004</t>
+  </si>
+  <si>
+    <t>YN-005</t>
+  </si>
+  <si>
+    <t>YN-006</t>
+  </si>
+  <si>
+    <t>YN-007</t>
+  </si>
+  <si>
+    <t>YN-008</t>
+  </si>
+  <si>
+    <t>YN-009</t>
+  </si>
+  <si>
+    <t>YN-010</t>
+  </si>
+  <si>
+    <t>YN-011</t>
+  </si>
+  <si>
+    <t>YN-012</t>
+  </si>
+  <si>
+    <t>YN-013</t>
+  </si>
+  <si>
+    <t>YN-014</t>
+  </si>
+  <si>
+    <t>YN-015</t>
+  </si>
+  <si>
+    <t>YN-016</t>
+  </si>
+  <si>
+    <t>ZS-001</t>
+  </si>
+  <si>
+    <t>ZS-002</t>
+  </si>
+  <si>
+    <t>ZS-003</t>
+  </si>
+  <si>
+    <t>ZS-004</t>
+  </si>
+  <si>
+    <t>ZS-005</t>
+  </si>
+  <si>
+    <t>ZS-006</t>
+  </si>
+  <si>
+    <t>ZS-007</t>
+  </si>
+  <si>
+    <t>ZS-008</t>
+  </si>
+  <si>
+    <t>ZS-009</t>
+  </si>
+  <si>
+    <t>ZS-010</t>
+  </si>
+  <si>
+    <t>ZS-011</t>
+  </si>
+  <si>
+    <t>ZS-012</t>
+  </si>
+  <si>
+    <t>ZS-013</t>
+  </si>
+  <si>
+    <t>ZS-014</t>
+  </si>
+  <si>
+    <t>ZS-015</t>
+  </si>
+  <si>
+    <t>ZS-016</t>
+  </si>
+  <si>
+    <t>ZS-017</t>
+  </si>
+  <si>
+    <t>ZS-018</t>
+  </si>
+  <si>
+    <t>ZS-019</t>
+  </si>
+  <si>
+    <t>MXN-001</t>
+  </si>
+  <si>
+    <t>MXN-002</t>
+  </si>
+  <si>
+    <t>MXN-003</t>
+  </si>
+  <si>
+    <t>MXN-004</t>
+  </si>
+  <si>
+    <t>MXN-005</t>
+  </si>
+  <si>
+    <t>MXN-006</t>
+  </si>
+  <si>
+    <t>MXN-007</t>
+  </si>
+  <si>
+    <t>MXN-008</t>
+  </si>
+  <si>
+    <t>MXN-009</t>
+  </si>
+  <si>
+    <t>MXN-010</t>
+  </si>
+  <si>
+    <t>MXN-011</t>
+  </si>
+  <si>
+    <t>MXN-012</t>
+  </si>
+  <si>
+    <t>MXN-013</t>
+  </si>
+  <si>
+    <t>MXN-014</t>
+  </si>
+  <si>
+    <t>MXN-015</t>
+  </si>
+  <si>
+    <t>MXN-016</t>
+  </si>
+  <si>
+    <t>MXN-017</t>
+  </si>
+  <si>
+    <t>MXN-018</t>
+  </si>
+  <si>
+    <t>MXN-019</t>
+  </si>
+  <si>
+    <t>MXN-020</t>
+  </si>
+  <si>
+    <t>MXN-021</t>
+  </si>
+  <si>
+    <t>MXN-022</t>
+  </si>
+  <si>
+    <t>MXN-023</t>
+  </si>
+  <si>
+    <t>MXN-024</t>
+  </si>
+  <si>
+    <t>MXN-025</t>
+  </si>
+  <si>
+    <t>MXN-026</t>
+  </si>
+  <si>
+    <t>MXN-027</t>
+  </si>
+  <si>
+    <t>MXN-028</t>
+  </si>
+  <si>
+    <t>MXS-001</t>
+  </si>
+  <si>
+    <t>MXS-002</t>
+  </si>
+  <si>
+    <t>MXS-003</t>
+  </si>
+  <si>
+    <t>MXS-004</t>
+  </si>
+  <si>
+    <t>MXS-005</t>
+  </si>
+  <si>
+    <t>MXS-006</t>
+  </si>
+  <si>
+    <t>MXS-007</t>
+  </si>
+  <si>
+    <t>MXS-008</t>
+  </si>
+  <si>
+    <t>MXS-009</t>
+  </si>
+  <si>
+    <t>MXS-010</t>
+  </si>
+  <si>
+    <t>MXS-011</t>
+  </si>
+  <si>
+    <t>MXS-012</t>
+  </si>
+  <si>
+    <t>MXS-013</t>
+  </si>
+  <si>
+    <t>MXS-014</t>
+  </si>
+  <si>
+    <t>MXS-015</t>
+  </si>
+  <si>
+    <t>MXS-016</t>
+  </si>
+  <si>
+    <t>MXS-017</t>
+  </si>
+  <si>
+    <t>MXS-018</t>
+  </si>
+  <si>
+    <t>MXS-019</t>
+  </si>
+  <si>
+    <t>MXS-020</t>
+  </si>
+  <si>
+    <t>MXS-021</t>
+  </si>
+  <si>
+    <t>MXS-022</t>
+  </si>
+  <si>
+    <t>MXS-023</t>
+  </si>
+  <si>
+    <t>MXS-024</t>
+  </si>
+  <si>
+    <t>MXS-025</t>
+  </si>
+  <si>
+    <t>MXS-026</t>
+  </si>
+  <si>
+    <t>MXS-027</t>
+  </si>
+  <si>
+    <t>MXS-028</t>
+  </si>
+  <si>
+    <t>MXO-001</t>
+  </si>
+  <si>
+    <t>MXO-002</t>
+  </si>
+  <si>
+    <t>MXO-003</t>
+  </si>
+  <si>
+    <t>MXO-004</t>
+  </si>
+  <si>
+    <t>MXO-005</t>
+  </si>
+  <si>
+    <t>MXO-006</t>
+  </si>
+  <si>
+    <t>MXO-007</t>
+  </si>
+  <si>
+    <t>MXO-008</t>
+  </si>
+  <si>
+    <t>MXO-009</t>
+  </si>
+  <si>
+    <t>MXO-010</t>
+  </si>
+  <si>
+    <t>MXP-001</t>
+  </si>
+  <si>
+    <t>MXP-002</t>
+  </si>
+  <si>
+    <t>MXP-003</t>
+  </si>
+  <si>
+    <t>MXP-004</t>
+  </si>
+  <si>
+    <t>MXP-005</t>
+  </si>
+  <si>
+    <t>MXP-006</t>
+  </si>
+  <si>
+    <t>MXP-007</t>
+  </si>
+  <si>
+    <t>MXP-008</t>
+  </si>
+  <si>
+    <t>MXP-009</t>
+  </si>
+  <si>
+    <t>MXP-010</t>
+  </si>
+  <si>
+    <t>MXP-011</t>
+  </si>
+  <si>
+    <t>MXP-012</t>
+  </si>
+  <si>
+    <t>MXP-013</t>
+  </si>
+  <si>
+    <t>MXP-014</t>
   </si>
 </sst>
 </file>
@@ -3101,7 +3671,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3416,18 +3988,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE28B81-502C-4E5A-BB75-1FF268AF61EC}">
-  <dimension ref="A1:F553"/>
+  <dimension ref="A1:C604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B553" sqref="B553"/>
+    <sheetView tabSelected="1" topLeftCell="A590" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F602" sqref="F602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3438,9 +4010,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -3449,9 +4021,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -3460,9 +4032,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3471,9 +4043,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -3482,9 +4054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -3493,9 +4065,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -3504,9 +4076,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -3515,9 +4087,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -3526,9 +4098,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -3537,9 +4109,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -3547,13 +4119,10 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -3562,9 +4131,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -3573,9 +4142,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -3584,9 +4153,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -3595,9 +4164,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -3608,7 +4177,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -3619,7 +4188,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -3630,10 +4199,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -3641,10 +4210,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -3652,10 +4221,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
@@ -3663,10 +4232,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -3674,10 +4243,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -3685,10 +4254,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -3696,10 +4265,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -3707,10 +4276,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -3718,10 +4287,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -3729,10 +4298,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -3740,10 +4309,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
@@ -3751,10 +4320,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
@@ -3762,10 +4331,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -3773,10 +4342,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -3784,10 +4353,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
@@ -3795,10 +4364,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -3806,10 +4375,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
@@ -3817,10 +4386,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -3828,10 +4397,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
@@ -3839,10 +4408,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
@@ -3850,10 +4419,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
@@ -3861,10 +4430,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -3872,10 +4441,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
@@ -3883,10 +4452,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -3894,10 +4463,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -3905,10 +4474,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
@@ -3916,10 +4485,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -3927,10 +4496,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1">
         <v>4</v>
@@ -3938,10 +4507,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1">
         <v>4</v>
@@ -3949,10 +4518,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1">
         <v>4</v>
@@ -3960,10 +4529,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
@@ -3971,10 +4540,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -3982,10 +4551,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="1">
         <v>4</v>
@@ -3993,10 +4562,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1">
         <v>4</v>
@@ -4004,10 +4573,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1">
         <v>5</v>
@@ -4015,10 +4584,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1">
         <v>5</v>
@@ -4026,10 +4595,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -4037,10 +4606,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -4048,10 +4617,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -4059,10 +4628,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="1">
         <v>6</v>
@@ -4070,10 +4639,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
@@ -4081,10 +4650,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
@@ -4092,10 +4661,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
@@ -4103,10 +4672,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
@@ -4114,10 +4683,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -4125,10 +4694,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -4136,10 +4705,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="1">
         <v>6</v>
@@ -4147,10 +4716,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1">
         <v>6</v>
@@ -4158,10 +4727,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C67" s="1">
         <v>6</v>
@@ -4169,10 +4738,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="1">
         <v>6</v>
@@ -4180,10 +4749,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="1">
         <v>6</v>
@@ -4191,10 +4760,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C70" s="1">
         <v>6</v>
@@ -4202,10 +4771,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="1">
         <v>6</v>
@@ -4213,10 +4782,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" s="1">
         <v>6</v>
@@ -4224,10 +4793,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="1">
         <v>6</v>
@@ -4235,10 +4804,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="1">
         <v>6</v>
@@ -4246,10 +4815,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="1">
         <v>6</v>
@@ -4257,10 +4826,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76" s="1">
         <v>6</v>
@@ -4268,10 +4837,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C77" s="1">
         <v>6</v>
@@ -4279,10 +4848,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1">
         <v>6</v>
@@ -4290,10 +4859,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79" s="1">
         <v>6</v>
@@ -4301,10 +4870,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="1">
         <v>6</v>
@@ -4312,10 +4881,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="1">
         <v>6</v>
@@ -4323,10 +4892,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C82" s="1">
         <v>6</v>
@@ -4334,10 +4903,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="1">
         <v>6</v>
@@ -4345,10 +4914,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" s="1">
         <v>6</v>
@@ -4356,10 +4925,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C85" s="1">
         <v>6</v>
@@ -4367,10 +4936,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" s="1">
         <v>6</v>
@@ -4378,10 +4947,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="1">
         <v>6</v>
@@ -4389,10 +4958,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="1">
         <v>6</v>
@@ -4400,10 +4969,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" s="1">
         <v>6</v>
@@ -4411,10 +4980,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" s="1">
         <v>6</v>
@@ -4422,10 +4991,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C91" s="1">
         <v>6</v>
@@ -4433,10 +5002,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="1">
         <v>6</v>
@@ -4444,10 +5013,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" s="1">
         <v>6</v>
@@ -4455,10 +5024,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C94" s="1">
         <v>6</v>
@@ -4466,10 +5035,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="1">
         <v>6</v>
@@ -4477,10 +5046,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" s="1">
         <v>6</v>
@@ -4488,10 +5057,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" s="1">
         <v>6</v>
@@ -4499,10 +5068,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C98" s="1">
         <v>6</v>
@@ -4510,10 +5079,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" s="1">
         <v>6</v>
@@ -4521,10 +5090,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C100" s="1">
         <v>6</v>
@@ -4532,10 +5101,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1">
         <v>6</v>
@@ -4543,10 +5112,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C102" s="1">
         <v>6</v>
@@ -4554,10 +5123,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C103" s="1">
         <v>6</v>
@@ -4565,10 +5134,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C104" s="1">
         <v>6</v>
@@ -4576,10 +5145,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C105" s="1">
         <v>6</v>
@@ -4587,10 +5156,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" s="1">
         <v>6</v>
@@ -4598,10 +5167,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C107" s="1">
         <v>6</v>
@@ -4609,10 +5178,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="1">
         <v>7</v>
@@ -4620,10 +5189,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C109" s="1">
         <v>7</v>
@@ -4631,10 +5200,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C110" s="1">
         <v>7</v>
@@ -4642,10 +5211,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C111" s="1">
         <v>7</v>
@@ -4653,10 +5222,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C112" s="1">
         <v>7</v>
@@ -4664,10 +5233,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C113" s="1">
         <v>7</v>
@@ -4675,10 +5244,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C114" s="1">
         <v>7</v>
@@ -4686,10 +5255,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C115" s="1">
         <v>7</v>
@@ -4697,10 +5266,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C116" s="1">
         <v>7</v>
@@ -4708,10 +5277,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C117" s="1">
         <v>7</v>
@@ -4719,10 +5288,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C118" s="1">
         <v>8</v>
@@ -4730,10 +5299,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C119" s="1">
         <v>8</v>
@@ -4741,10 +5310,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C120" s="1">
         <v>9</v>
@@ -4755,7 +5324,7 @@
         <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C121" s="1">
         <v>9</v>
@@ -4763,10 +5332,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C122" s="1">
         <v>9</v>
@@ -4774,10 +5343,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C123" s="1">
         <v>9</v>
@@ -4785,10 +5354,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C124" s="1">
         <v>9</v>
@@ -4796,10 +5365,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C125" s="1">
         <v>9</v>
@@ -4807,10 +5376,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C126" s="1">
         <v>9</v>
@@ -4818,10 +5387,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C127" s="1">
         <v>9</v>
@@ -4829,10 +5398,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C128" s="1">
         <v>9</v>
@@ -4840,10 +5409,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C129" s="1">
         <v>9</v>
@@ -4851,10 +5420,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C130" s="1">
         <v>9</v>
@@ -4862,10 +5431,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C131" s="1">
         <v>9</v>
@@ -4873,10 +5442,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C132" s="1">
         <v>9</v>
@@ -4884,10 +5453,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C133" s="1">
         <v>9</v>
@@ -4895,10 +5464,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C134" s="1">
         <v>9</v>
@@ -4906,10 +5475,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C135" s="1">
         <v>9</v>
@@ -4917,10 +5486,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C136" s="1">
         <v>9</v>
@@ -4928,10 +5497,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C137" s="1">
         <v>9</v>
@@ -4939,10 +5508,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C138" s="1">
         <v>9</v>
@@ -4950,10 +5519,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C139" s="1">
         <v>9</v>
@@ -4961,10 +5530,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C140" s="1">
         <v>9</v>
@@ -4972,10 +5541,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C141" s="1">
         <v>10</v>
@@ -4983,10 +5552,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C142" s="1">
         <v>10</v>
@@ -4994,10 +5563,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C143" s="1">
         <v>10</v>
@@ -5005,10 +5574,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C144" s="1">
         <v>10</v>
@@ -5016,10 +5585,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C145" s="1">
         <v>10</v>
@@ -5027,10 +5596,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C146" s="1">
         <v>10</v>
@@ -5038,10 +5607,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C147" s="1">
         <v>11</v>
@@ -5049,10 +5618,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C148" s="1">
         <v>11</v>
@@ -5060,10 +5629,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C149" s="1">
         <v>11</v>
@@ -5071,10 +5640,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C150" s="1">
         <v>11</v>
@@ -5082,10 +5651,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C151" s="1">
         <v>11</v>
@@ -5093,10 +5662,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C152" s="1">
         <v>11</v>
@@ -5104,10 +5673,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C153" s="1">
         <v>11</v>
@@ -5115,10 +5684,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C154" s="1">
         <v>11</v>
@@ -5126,10 +5695,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C155" s="1">
         <v>11</v>
@@ -5137,10 +5706,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C156" s="1">
         <v>11</v>
@@ -5148,10 +5717,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C157" s="1">
         <v>11</v>
@@ -5159,10 +5728,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C158" s="1">
         <v>11</v>
@@ -5170,10 +5739,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C159" s="1">
         <v>11</v>
@@ -5181,10 +5750,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C160" s="1">
         <v>11</v>
@@ -5192,10 +5761,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C161" s="1">
         <v>11</v>
@@ -5203,10 +5772,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C162" s="1">
         <v>11</v>
@@ -5214,10 +5783,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C163" s="1">
         <v>11</v>
@@ -5225,10 +5794,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C164" s="1">
         <v>11</v>
@@ -5236,10 +5805,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C165" s="1">
         <v>11</v>
@@ -5247,10 +5816,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C166" s="1">
         <v>11</v>
@@ -5258,10 +5827,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C167" s="1">
         <v>11</v>
@@ -5269,10 +5838,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C168" s="1">
         <v>11</v>
@@ -5280,10 +5849,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C169" s="1">
         <v>11</v>
@@ -5291,10 +5860,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C170" s="1">
         <v>11</v>
@@ -5302,10 +5871,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C171" s="1">
         <v>11</v>
@@ -5313,10 +5882,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C172" s="1">
         <v>11</v>
@@ -5324,10 +5893,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C173" s="1">
         <v>11</v>
@@ -5335,10 +5904,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C174" s="1">
         <v>11</v>
@@ -5346,10 +5915,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C175" s="1">
         <v>11</v>
@@ -5357,10 +5926,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C176" s="1">
         <v>11</v>
@@ -5368,10 +5937,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C177" s="1">
         <v>11</v>
@@ -5379,10 +5948,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C178" s="1">
         <v>11</v>
@@ -5390,10 +5959,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C179" s="1">
         <v>11</v>
@@ -5401,10 +5970,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C180" s="1">
         <v>11</v>
@@ -5412,10 +5981,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C181" s="1">
         <v>11</v>
@@ -5423,10 +5992,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C182" s="1">
         <v>11</v>
@@ -5434,10 +6003,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C183" s="1">
         <v>11</v>
@@ -5445,10 +6014,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C184" s="1">
         <v>11</v>
@@ -5456,10 +6025,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C185" s="1">
         <v>11</v>
@@ -5467,10 +6036,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C186" s="1">
         <v>11</v>
@@ -5478,10 +6047,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C187" s="1">
         <v>11</v>
@@ -5489,10 +6058,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C188" s="1">
         <v>11</v>
@@ -5500,10 +6069,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C189" s="1">
         <v>11</v>
@@ -5511,10 +6080,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C190" s="1">
         <v>11</v>
@@ -5522,10 +6091,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C191" s="1">
         <v>11</v>
@@ -5533,10 +6102,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C192" s="1">
         <v>11</v>
@@ -5544,10 +6113,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C193" s="1">
         <v>11</v>
@@ -5555,10 +6124,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C194" s="1">
         <v>11</v>
@@ -5566,10 +6135,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C195" s="1">
         <v>11</v>
@@ -5577,10 +6146,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C196" s="1">
         <v>12</v>
@@ -5588,10 +6157,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C197" s="1">
         <v>12</v>
@@ -5599,10 +6168,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C198" s="1">
         <v>12</v>
@@ -5610,10 +6179,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C199" s="1">
         <v>12</v>
@@ -5621,10 +6190,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C200" s="1">
         <v>12</v>
@@ -5632,10 +6201,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C201" s="1">
         <v>12</v>
@@ -5643,10 +6212,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C202" s="1">
         <v>12</v>
@@ -5654,10 +6223,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C203" s="1">
         <v>12</v>
@@ -5665,10 +6234,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C204" s="1">
         <v>12</v>
@@ -5676,10 +6245,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C205" s="1">
         <v>12</v>
@@ -5687,10 +6256,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C206" s="1">
         <v>12</v>
@@ -5698,10 +6267,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C207" s="1">
         <v>12</v>
@@ -5709,10 +6278,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C208" s="1">
         <v>12</v>
@@ -5720,10 +6289,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C209" s="1">
         <v>12</v>
@@ -5731,10 +6300,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C210" s="1">
         <v>12</v>
@@ -5742,10 +6311,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C211" s="1">
         <v>12</v>
@@ -5753,10 +6322,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C212" s="1">
         <v>12</v>
@@ -5764,10 +6333,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C213" s="1">
         <v>12</v>
@@ -5775,10 +6344,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C214" s="1">
         <v>12</v>
@@ -5786,10 +6355,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C215" s="1">
         <v>12</v>
@@ -5797,10 +6366,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C216" s="1">
         <v>12</v>
@@ -5808,10 +6377,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C217" s="1">
         <v>12</v>
@@ -5819,10 +6388,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C218" s="1">
         <v>12</v>
@@ -5830,10 +6399,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C219" s="1">
         <v>12</v>
@@ -5841,10 +6410,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C220" s="1">
         <v>12</v>
@@ -5852,10 +6421,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C221" s="1">
         <v>12</v>
@@ -5863,10 +6432,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C222" s="1">
         <v>12</v>
@@ -5874,10 +6443,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C223" s="1">
         <v>12</v>
@@ -5885,10 +6454,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C224" s="1">
         <v>12</v>
@@ -5896,10 +6465,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C225" s="1">
         <v>12</v>
@@ -5907,10 +6476,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C226" s="1">
         <v>12</v>
@@ -5918,10 +6487,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C227" s="1">
         <v>12</v>
@@ -5929,10 +6498,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C228" s="1">
         <v>12</v>
@@ -5940,10 +6509,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C229" s="1">
         <v>12</v>
@@ -5951,10 +6520,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C230" s="1">
         <v>13</v>
@@ -5962,10 +6531,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C231" s="1">
         <v>13</v>
@@ -5973,10 +6542,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C232" s="1">
         <v>13</v>
@@ -5984,10 +6553,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C233" s="1">
         <v>13</v>
@@ -5995,10 +6564,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C234" s="1">
         <v>13</v>
@@ -6006,10 +6575,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C235" s="1">
         <v>13</v>
@@ -6017,10 +6586,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C236" s="1">
         <v>13</v>
@@ -6028,10 +6597,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C237" s="1">
         <v>13</v>
@@ -6039,10 +6608,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C238" s="1">
         <v>13</v>
@@ -6050,10 +6619,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C239" s="1">
         <v>14</v>
@@ -6061,10 +6630,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C240" s="1">
         <v>14</v>
@@ -6072,10 +6641,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C241" s="1">
         <v>14</v>
@@ -6083,10 +6652,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C242" s="1">
         <v>14</v>
@@ -6094,10 +6663,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C243" s="1">
         <v>14</v>
@@ -6105,10 +6674,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C244" s="1">
         <v>14</v>
@@ -6116,10 +6685,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C245" s="1">
         <v>14</v>
@@ -6127,10 +6696,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C246" s="1">
         <v>14</v>
@@ -6138,10 +6707,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C247" s="1">
         <v>14</v>
@@ -6149,10 +6718,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C248" s="1">
         <v>14</v>
@@ -6160,10 +6729,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C249" s="1">
         <v>14</v>
@@ -6171,10 +6740,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C250" s="1">
         <v>15</v>
@@ -6182,10 +6751,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C251" s="1">
         <v>15</v>
@@ -6193,10 +6762,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C252" s="1">
         <v>15</v>
@@ -6204,10 +6773,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C253" s="1">
         <v>15</v>
@@ -6215,10 +6784,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C254" s="1">
         <v>15</v>
@@ -6226,10 +6795,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C255" s="1">
         <v>15</v>
@@ -6237,10 +6806,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C256" s="1">
         <v>15</v>
@@ -6248,10 +6817,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C257" s="1">
         <v>15</v>
@@ -6259,10 +6828,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C258" s="1">
         <v>15</v>
@@ -6270,10 +6839,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C259" s="1">
         <v>15</v>
@@ -6281,10 +6850,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C260" s="1">
         <v>15</v>
@@ -6292,10 +6861,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C261" s="1">
         <v>15</v>
@@ -6303,10 +6872,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C262" s="1">
         <v>15</v>
@@ -6314,10 +6883,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C263" s="1">
         <v>16</v>
@@ -6325,10 +6894,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C264" s="1">
         <v>16</v>
@@ -6336,10 +6905,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C265" s="1">
         <v>16</v>
@@ -6347,10 +6916,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C266" s="1">
         <v>16</v>
@@ -6358,10 +6927,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C267" s="1">
         <v>16</v>
@@ -6369,10 +6938,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C268" s="1">
         <v>16</v>
@@ -6380,10 +6949,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C269" s="1">
         <v>16</v>
@@ -6391,10 +6960,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C270" s="1">
         <v>16</v>
@@ -6402,10 +6971,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C271" s="1">
         <v>16</v>
@@ -6413,10 +6982,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C272" s="1">
         <v>16</v>
@@ -6424,10 +6993,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C273" s="1">
         <v>16</v>
@@ -6435,10 +7004,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C274" s="1">
         <v>16</v>
@@ -6446,10 +7015,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C275" s="1">
         <v>16</v>
@@ -6457,10 +7026,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C276" s="1">
         <v>16</v>
@@ -6468,10 +7037,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C277" s="1">
         <v>16</v>
@@ -6479,10 +7048,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C278" s="1">
         <v>16</v>
@@ -6490,10 +7059,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C279" s="1">
         <v>16</v>
@@ -6501,10 +7070,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C280" s="1">
         <v>16</v>
@@ -6512,10 +7081,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C281" s="1">
         <v>16</v>
@@ -6523,10 +7092,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C282" s="1">
         <v>16</v>
@@ -6534,10 +7103,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C283" s="1">
         <v>16</v>
@@ -6545,10 +7114,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C284" s="1">
         <v>16</v>
@@ -6556,10 +7125,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C285" s="1">
         <v>16</v>
@@ -6567,10 +7136,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C286" s="1">
         <v>16</v>
@@ -6578,10 +7147,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C287" s="1">
         <v>16</v>
@@ -6589,10 +7158,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C288" s="1">
         <v>16</v>
@@ -6600,10 +7169,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C289" s="1">
         <v>17</v>
@@ -6611,10 +7180,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C290" s="1">
         <v>17</v>
@@ -6622,10 +7191,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C291" s="1">
         <v>17</v>
@@ -6633,10 +7202,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C292" s="1">
         <v>18</v>
@@ -6644,10 +7213,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C293" s="1">
         <v>18</v>
@@ -6655,10 +7224,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C294" s="1">
         <v>18</v>
@@ -6666,10 +7235,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C295" s="1">
         <v>18</v>
@@ -6677,10 +7246,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C296" s="1">
         <v>18</v>
@@ -6688,10 +7257,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C297" s="1">
         <v>19</v>
@@ -6699,10 +7268,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C298" s="1">
         <v>19</v>
@@ -6710,10 +7279,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C299" s="1">
         <v>19</v>
@@ -6721,10 +7290,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C300" s="1">
         <v>19</v>
@@ -6732,10 +7301,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C301" s="1">
         <v>19</v>
@@ -6743,10 +7312,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C302" s="1">
         <v>19</v>
@@ -6754,10 +7323,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C303" s="1">
         <v>19</v>
@@ -6765,10 +7334,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C304" s="1">
         <v>19</v>
@@ -6776,10 +7345,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C305" s="1">
         <v>20</v>
@@ -6787,10 +7356,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C306" s="1">
         <v>20</v>
@@ -6798,10 +7367,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C307" s="1">
         <v>20</v>
@@ -6809,10 +7378,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C308" s="1">
         <v>20</v>
@@ -6820,10 +7389,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C309" s="1">
         <v>20</v>
@@ -6831,10 +7400,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C310" s="1">
         <v>20</v>
@@ -6842,10 +7411,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C311" s="1">
         <v>20</v>
@@ -6853,10 +7422,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C312" s="1">
         <v>20</v>
@@ -6864,10 +7433,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C313" s="1">
         <v>20</v>
@@ -6875,10 +7444,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C314" s="1">
         <v>20</v>
@@ -6886,10 +7455,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C315" s="1">
         <v>20</v>
@@ -6897,10 +7466,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C316" s="1">
         <v>20</v>
@@ -6908,10 +7477,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C317" s="1">
         <v>20</v>
@@ -6919,10 +7488,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C318" s="1">
         <v>20</v>
@@ -6930,10 +7499,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C319" s="1">
         <v>20</v>
@@ -6941,10 +7510,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C320" s="1">
         <v>20</v>
@@ -6952,10 +7521,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C321" s="1">
         <v>20</v>
@@ -6963,10 +7532,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C322" s="1">
         <v>20</v>
@@ -6974,10 +7543,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C323" s="1">
         <v>20</v>
@@ -6985,10 +7554,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C324" s="1">
         <v>20</v>
@@ -6996,10 +7565,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C325" s="1">
         <v>20</v>
@@ -7007,10 +7576,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C326" s="1">
         <v>20</v>
@@ -7018,10 +7587,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C327" s="1">
         <v>20</v>
@@ -7029,10 +7598,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C328" s="1">
         <v>20</v>
@@ -7040,10 +7609,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C329" s="1">
         <v>20</v>
@@ -7051,10 +7620,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C330" s="1">
         <v>20</v>
@@ -7062,10 +7631,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C331" s="1">
         <v>20</v>
@@ -7073,10 +7642,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C332" s="1">
         <v>20</v>
@@ -7084,10 +7653,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C333" s="1">
         <v>20</v>
@@ -7095,10 +7664,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C334" s="1">
         <v>20</v>
@@ -7106,10 +7675,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C335" s="1">
         <v>20</v>
@@ -7117,10 +7686,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C336" s="1">
         <v>20</v>
@@ -7128,10 +7697,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C337" s="1">
         <v>20</v>
@@ -7139,10 +7708,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C338" s="1">
         <v>20</v>
@@ -7150,10 +7719,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C339" s="1">
         <v>20</v>
@@ -7161,10 +7730,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C340" s="1">
         <v>20</v>
@@ -7172,10 +7741,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C341" s="1">
         <v>20</v>
@@ -7183,10 +7752,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C342" s="1">
         <v>21</v>
@@ -7194,10 +7763,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C343" s="1">
         <v>21</v>
@@ -7205,10 +7774,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C344" s="1">
         <v>21</v>
@@ -7216,10 +7785,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C345" s="1">
         <v>21</v>
@@ -7227,10 +7796,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C346" s="1">
         <v>21</v>
@@ -7238,10 +7807,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C347" s="1">
         <v>21</v>
@@ -7249,10 +7818,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C348" s="1">
         <v>21</v>
@@ -7260,10 +7829,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C349" s="1">
         <v>21</v>
@@ -7271,10 +7840,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C350" s="1">
         <v>21</v>
@@ -7282,10 +7851,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C351" s="1">
         <v>21</v>
@@ -7293,10 +7862,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C352" s="1">
         <v>21</v>
@@ -7304,10 +7873,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C353" s="1">
         <v>21</v>
@@ -7315,10 +7884,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C354" s="1">
         <v>21</v>
@@ -7326,10 +7895,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C355" s="1">
         <v>21</v>
@@ -7337,10 +7906,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C356" s="1">
         <v>22</v>
@@ -7348,10 +7917,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C357" s="1">
         <v>22</v>
@@ -7359,10 +7928,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C358" s="1">
         <v>22</v>
@@ -7370,10 +7939,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C359" s="1">
         <v>22</v>
@@ -7381,10 +7950,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C360" s="1">
         <v>22</v>
@@ -7392,10 +7961,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C361" s="1">
         <v>22</v>
@@ -7403,10 +7972,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C362" s="1">
         <v>22</v>
@@ -7414,10 +7983,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C363" s="1">
         <v>22</v>
@@ -7425,10 +7994,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C364" s="1">
         <v>22</v>
@@ -7436,10 +8005,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C365" s="1">
         <v>22</v>
@@ -7447,10 +8016,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C366" s="1">
         <v>23</v>
@@ -7458,10 +8027,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C367" s="1">
         <v>23</v>
@@ -7469,10 +8038,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C368" s="1">
         <v>23</v>
@@ -7480,10 +8049,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C369" s="1">
         <v>23</v>
@@ -7491,10 +8060,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C370" s="1">
         <v>23</v>
@@ -7502,10 +8071,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C371" s="1">
         <v>23</v>
@@ -7513,10 +8082,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C372" s="1">
         <v>23</v>
@@ -7524,10 +8093,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C373" s="1">
         <v>23</v>
@@ -7535,10 +8104,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C374" s="1">
         <v>23</v>
@@ -7546,10 +8115,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C375" s="1">
         <v>23</v>
@@ -7557,10 +8126,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C376" s="1">
         <v>23</v>
@@ -7568,10 +8137,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C377" s="1">
         <v>23</v>
@@ -7579,10 +8148,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C378" s="1">
         <v>23</v>
@@ -7590,10 +8159,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C379" s="1">
         <v>23</v>
@@ -7601,10 +8170,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C380" s="1">
         <v>23</v>
@@ -7612,10 +8181,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C381" s="1">
         <v>23</v>
@@ -7623,10 +8192,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C382" s="1">
         <v>23</v>
@@ -7634,10 +8203,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C383" s="1">
         <v>23</v>
@@ -7645,10 +8214,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C384" s="1">
         <v>23</v>
@@ -7656,10 +8225,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C385" s="1">
         <v>23</v>
@@ -7667,10 +8236,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C386" s="1">
         <v>23</v>
@@ -7678,10 +8247,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C387" s="1">
         <v>23</v>
@@ -7689,10 +8258,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C388" s="1">
         <v>23</v>
@@ -7700,10 +8269,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C389" s="1">
         <v>23</v>
@@ -7711,10 +8280,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C390" s="1">
         <v>23</v>
@@ -7722,10 +8291,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C391" s="1">
         <v>24</v>
@@ -7733,10 +8302,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C392" s="1">
         <v>24</v>
@@ -7744,10 +8313,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C393" s="1">
         <v>24</v>
@@ -7755,10 +8324,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C394" s="1">
         <v>24</v>
@@ -7766,10 +8335,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C395" s="1">
         <v>25</v>
@@ -7777,10 +8346,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C396" s="1">
         <v>25</v>
@@ -7788,10 +8357,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C397" s="1">
         <v>25</v>
@@ -7799,10 +8368,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C398" s="1">
         <v>25</v>
@@ -7810,10 +8379,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C399" s="1">
         <v>25</v>
@@ -7821,10 +8390,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C400" s="1">
         <v>25</v>
@@ -7832,10 +8401,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C401" s="1">
         <v>25</v>
@@ -7843,10 +8412,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C402" s="1">
         <v>25</v>
@@ -7854,10 +8423,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C403" s="1">
         <v>26</v>
@@ -7865,10 +8434,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C404" s="1">
         <v>26</v>
@@ -7876,10 +8445,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C405" s="1">
         <v>26</v>
@@ -7887,10 +8456,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C406" s="1">
         <v>26</v>
@@ -7898,10 +8467,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C407" s="1">
         <v>26</v>
@@ -7909,10 +8478,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C408" s="1">
         <v>26</v>
@@ -7920,10 +8489,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C409" s="1">
         <v>26</v>
@@ -7931,10 +8500,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C410" s="1">
         <v>26</v>
@@ -7942,10 +8511,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C411" s="1">
         <v>26</v>
@@ -7953,10 +8522,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C412" s="1">
         <v>26</v>
@@ -7964,10 +8533,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C413" s="1">
         <v>26</v>
@@ -7975,10 +8544,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C414" s="1">
         <v>26</v>
@@ -7986,10 +8555,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C415" s="1">
         <v>26</v>
@@ -7997,10 +8566,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C416" s="1">
         <v>26</v>
@@ -8008,10 +8577,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C417" s="1">
         <v>26</v>
@@ -8019,10 +8588,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C418" s="1">
         <v>26</v>
@@ -8030,10 +8599,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C419" s="1">
         <v>26</v>
@@ -8041,10 +8610,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C420" s="1">
         <v>26</v>
@@ -8052,10 +8621,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C421" s="1">
         <v>26</v>
@@ -8063,10 +8632,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C422" s="1">
         <v>26</v>
@@ -8074,10 +8643,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C423" s="1">
         <v>26</v>
@@ -8085,10 +8654,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C424" s="1">
         <v>26</v>
@@ -8096,10 +8665,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C425" s="1">
         <v>26</v>
@@ -8107,10 +8676,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C426" s="1">
         <v>26</v>
@@ -8118,10 +8687,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C427" s="1">
         <v>26</v>
@@ -8129,10 +8698,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C428" s="1">
         <v>26</v>
@@ -8140,10 +8709,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C429" s="1">
         <v>27</v>
@@ -8151,10 +8720,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C430" s="1">
         <v>27</v>
@@ -8162,10 +8731,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C431" s="1">
         <v>27</v>
@@ -8173,10 +8742,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C432" s="1">
         <v>27</v>
@@ -8184,10 +8753,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C433" s="1">
         <v>27</v>
@@ -8195,10 +8764,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C434" s="1">
         <v>27</v>
@@ -8206,10 +8775,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C435" s="1">
         <v>27</v>
@@ -8217,10 +8786,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C436" s="1">
         <v>27</v>
@@ -8228,10 +8797,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C437" s="1">
         <v>27</v>
@@ -8239,10 +8808,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C438" s="1">
         <v>27</v>
@@ -8250,10 +8819,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C439" s="1">
         <v>27</v>
@@ -8261,10 +8830,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C440" s="1">
         <v>27</v>
@@ -8272,10 +8841,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C441" s="1">
         <v>27</v>
@@ -8283,10 +8852,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C442" s="1">
         <v>27</v>
@@ -8294,10 +8863,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C443" s="1">
         <v>27</v>
@@ -8305,10 +8874,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C444" s="1">
         <v>27</v>
@@ -8316,10 +8885,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C445" s="1">
         <v>27</v>
@@ -8327,10 +8896,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C446" s="1">
         <v>27</v>
@@ -8338,10 +8907,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C447" s="1">
         <v>27</v>
@@ -8349,10 +8918,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C448" s="1">
         <v>27</v>
@@ -8360,10 +8929,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C449" s="1">
         <v>27</v>
@@ -8371,10 +8940,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C450" s="1">
         <v>27</v>
@@ -8382,10 +8951,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C451" s="1">
         <v>27</v>
@@ -8393,10 +8962,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C452" s="1">
         <v>27</v>
@@ -8404,10 +8973,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C453" s="1">
         <v>27</v>
@@ -8415,10 +8984,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C454" s="1">
         <v>27</v>
@@ -8426,10 +8995,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C455" s="1">
         <v>27</v>
@@ -8437,10 +9006,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C456" s="1">
         <v>27</v>
@@ -8448,10 +9017,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C457" s="1">
         <v>27</v>
@@ -8459,10 +9028,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C458" s="1">
         <v>27</v>
@@ -8470,10 +9039,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C459" s="1">
         <v>27</v>
@@ -8481,10 +9050,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C460" s="1">
         <v>27</v>
@@ -8492,10 +9061,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C461" s="1">
         <v>27</v>
@@ -8503,10 +9072,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C462" s="1">
         <v>27</v>
@@ -8514,10 +9083,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C463" s="1">
         <v>27</v>
@@ -8525,725 +9094,1553 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C464" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B465" t="s">
-        <v>927</v>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="C465" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B466" t="s">
-        <v>928</v>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>927</v>
       </c>
       <c r="C466" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B467" t="s">
-        <v>929</v>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>928</v>
       </c>
       <c r="C467" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B468" t="s">
-        <v>930</v>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>929</v>
       </c>
       <c r="C468" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B469" t="s">
-        <v>931</v>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="C469" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B470" t="s">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C470" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B471" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C470">
+      <c r="C471" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B471" t="s">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B472" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C471">
+      <c r="C472" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B472" t="s">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C472">
+      <c r="C473" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B473" t="s">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C473">
+      <c r="C474" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B474" t="s">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C474">
+      <c r="C475" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B475" t="s">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C475">
+      <c r="C476" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B476" t="s">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B477" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C476">
+      <c r="C477" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B477" t="s">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C477">
+      <c r="C478" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B478" t="s">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C478">
+      <c r="C479" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B479" t="s">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C479">
+      <c r="C480" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B480" t="s">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C480">
+      <c r="C481" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B481" t="s">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C481">
+      <c r="C482" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B482" t="s">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B483" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C482">
+      <c r="C483" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B483" t="s">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C483">
+      <c r="C484" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B484" t="s">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C484">
+      <c r="C485" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B485" t="s">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C485">
+      <c r="C486" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B486" t="s">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B487" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="C486">
+      <c r="C487" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B487" t="s">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C487">
+      <c r="C488" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B488" t="s">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="C488">
+      <c r="C489" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B489" t="s">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C489">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B490" t="s">
+      <c r="C490" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C490">
+      <c r="C491" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B491" t="s">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C491">
+      <c r="C492" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B492" t="s">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C492">
+      <c r="C493" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B493" t="s">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="C493">
+      <c r="C494" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B494" t="s">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B495" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C494">
+      <c r="C495" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B495" t="s">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B496" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C495">
+      <c r="C496" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B496" t="s">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B497" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C496">
+      <c r="C497" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B497" t="s">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B498" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="C497">
+      <c r="C498" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B498" t="s">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C498">
+      <c r="C499" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B499" t="s">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C500" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C499">
+      <c r="C501" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B500" t="s">
-        <v>704</v>
-      </c>
-      <c r="C500">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C502" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B501" t="s">
-        <v>962</v>
-      </c>
-      <c r="C501">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C503" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B502" t="s">
-        <v>963</v>
-      </c>
-      <c r="C502">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C504" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B503" t="s">
-        <v>964</v>
-      </c>
-      <c r="C503">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C505" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B504" t="s">
-        <v>965</v>
-      </c>
-      <c r="C504">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B505" t="s">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B506" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C505">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B506" t="s">
+      <c r="C506" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B507" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C506">
+      <c r="C507" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B507" t="s">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B508" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C507">
+      <c r="C508" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B508" t="s">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B509" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C508">
+      <c r="C509" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B509" t="s">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B510" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="C509">
+      <c r="C510" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B510" t="s">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C510">
+      <c r="C511" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B511" t="s">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B512" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C511">
+      <c r="C512" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B512" t="s">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B513" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="C512">
+      <c r="C513" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B513" t="s">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B514" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C513">
+      <c r="C514" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B514" t="s">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C515" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B516" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C514">
+      <c r="C516" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B515" t="s">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C517" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C518" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C519" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C520" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C521" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C522" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C523" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C524" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C525" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C526" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C527" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C528" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C529" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C530" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C531" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C532" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C533" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C534" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C535" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C536" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C537" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C538" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C539" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C540" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C541" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C542" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C543" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C544" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C545" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C546" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C547" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C548" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C549" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C550" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C551" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C552" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C553" s="1">
         <v>33</v>
       </c>
-      <c r="C515">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B516" t="s">
-        <v>976</v>
-      </c>
-      <c r="C516">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B517" t="s">
-        <v>977</v>
-      </c>
-      <c r="C517">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B518" t="s">
-        <v>978</v>
-      </c>
-      <c r="C518">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B519" t="s">
-        <v>979</v>
-      </c>
-      <c r="C519">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B520" t="s">
-        <v>980</v>
-      </c>
-      <c r="C520">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B521" t="s">
-        <v>981</v>
-      </c>
-      <c r="C521">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B522" t="s">
-        <v>982</v>
-      </c>
-      <c r="C522">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B523" t="s">
-        <v>983</v>
-      </c>
-      <c r="C523">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B524" t="s">
-        <v>984</v>
-      </c>
-      <c r="C524">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B525" t="s">
-        <v>985</v>
-      </c>
-      <c r="C525">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B526" t="s">
-        <v>986</v>
-      </c>
-      <c r="C526">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B527" t="s">
-        <v>987</v>
-      </c>
-      <c r="C527">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B528" t="s">
-        <v>988</v>
-      </c>
-      <c r="C528">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B529" t="s">
-        <v>989</v>
-      </c>
-      <c r="C529">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B530" t="s">
-        <v>990</v>
-      </c>
-      <c r="C530">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B531" t="s">
-        <v>991</v>
-      </c>
-      <c r="C531">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B532" t="s">
-        <v>992</v>
-      </c>
-      <c r="C532">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B533" t="s">
-        <v>993</v>
-      </c>
-      <c r="C533">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B534" t="s">
-        <v>969</v>
-      </c>
-      <c r="C534">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B535" t="s">
-        <v>994</v>
-      </c>
-      <c r="C535">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B536" t="s">
-        <v>995</v>
-      </c>
-      <c r="C536">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B537" t="s">
-        <v>996</v>
-      </c>
-      <c r="C537">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B538" t="s">
-        <v>996</v>
-      </c>
-      <c r="C538">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B539" t="s">
-        <v>997</v>
-      </c>
-      <c r="C539">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B540" t="s">
-        <v>998</v>
-      </c>
-      <c r="C540">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B541" t="s">
-        <v>999</v>
-      </c>
-      <c r="C541">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B542" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C542">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B543" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C543">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B544" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C544">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B545" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C545">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B546" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C546">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B547" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C547">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B548" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C548">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B549" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C549">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B550" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C550">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B551" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C551">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B552" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C552">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B553" t="s">
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B554" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C553">
+      <c r="C554" s="1">
         <v>33</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C555" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C556" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C557" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C558" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C559" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C560" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C561" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C562" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C563" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C564" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C565" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C566" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C567" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C568" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C569" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C570" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C571" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C572" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C573" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C574" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C575" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C576" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C577" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C578" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C579" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C580" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C581" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C582" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C583" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C584" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C585" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C586" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C587" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C588" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C589" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C590" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C591" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C592" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C593" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C594" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C595" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C596" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C597" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C598" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C599" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C600" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C601" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C602" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C603" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C604" s="1">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/unidadmedica.xlsx
+++ b/Datos/unidadmedica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeadHunters\Desktop\Documents\GitHub\proyecto\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\parti\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07E2D128-DFE1-4F70-8C59-2FA1B74F31BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F4DE5-4936-4C7B-82CC-915FA4224E4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{6B64330E-713B-49E0-90F5-C9F5994A4617}"/>
   </bookViews>
@@ -3990,13 +3990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE28B81-502C-4E5A-BB75-1FF268AF61EC}">
   <dimension ref="A1:C604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F602" sqref="F602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.28515625" customWidth="1"/>
+    <col min="2" max="2" width="117.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
